--- a/medicine/Sexualité et sexologie/Kâmashâstra/Kâmashâstra.xlsx
+++ b/medicine/Sexualité et sexologie/Kâmashâstra/Kâmashâstra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A2mash%C3%A2stra</t>
+          <t>Kâmashâstra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique de Kâmashâstra se rapporte aux ouvrages indiens spécialisés dans les arts amoureux et les pratiques sexuelles. Ils sont à distinguer des textes tantriques, dont la finalité est religieuse ou spirituelle, et des textes érotiques, qui appartiennent à la littérature profane ou sacrée. La datation des traités est souvent très incertaine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A2mash%C3%A2stra</t>
+          <t>Kâmashâstra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Textes anciens disparus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kâmashâstra de Nandi ou Nandikeshvara, compagnon légendaire de Shiva. Composé de 1000 chapitres, ce traité serait la source de tous les Kâmashâstra ultérieurs.
 Kâmashâstra de Auddalaki Shvetaketu (VIIIe siècle av. J.-C.). Condensé en 500 chapitres du Kâmashâstra de Nandi.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A2mash%C3%A2stra</t>
+          <t>Kâmashâstra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Textes médiévaux et modernes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anangaranga de Kalyanamalla (XVe – XVIe siècle). Traité en 10 chapitres. Il aurait été écrit pour divertir le fils d'un sultan de Jawnpur appelé Ahmad Khan Lodi. Après le Ratirahasya et le Kâmasûtra, il fut l'un des plus populaires.
 Dattakasûtra du roi Mâdhava II de la dynastie Ganga du Mysore (Ve siècle).
